--- a/Architecture.xlsx
+++ b/Architecture.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t xml:space="preserve">                         COMPONENT
 ENTITY</t>
@@ -30,13 +30,49 @@
   <si>
     <t xml:space="preserve">                         COMPONENT
 SYSTEM</t>
+  </si>
+  <si>
+    <t>DebugCameraSystem</t>
+  </si>
+  <si>
+    <t>Logic for controlling camera</t>
+  </si>
+  <si>
+    <t>DebugRenderSystem</t>
+  </si>
+  <si>
+    <t>Logic for rendering debug models</t>
+  </si>
+  <si>
+    <t>GridRenderSystem</t>
+  </si>
+  <si>
+    <t>Logic for rendering grid</t>
+  </si>
+  <si>
+    <t>CellRenderSystem</t>
+  </si>
+  <si>
+    <t>Logic for spawning cells</t>
+  </si>
+  <si>
+    <t>BoundsComponent</t>
+  </si>
+  <si>
+    <t>CellComponent</t>
+  </si>
+  <si>
+    <t>PositionComponent</t>
+  </si>
+  <si>
+    <t>Cell</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,8 +103,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -85,6 +129,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -158,12 +207,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -175,6 +225,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -185,18 +239,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="1" builtinId="27"/>
+    <cellStyle name="Хороший" xfId="3" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -497,16 +549,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
@@ -520,148 +572,164 @@
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -669,9 +737,15 @@
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -680,7 +754,9 @@
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
+      <c r="A18" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -692,8 +768,10 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="14"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -704,7 +782,9 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
+      <c r="A20" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -716,7 +796,9 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
+      <c r="A21" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -841,9 +923,15 @@
       <c r="A34" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -852,10 +940,12 @@
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="A35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
